--- a/doc/MISS_WBS_220504.xlsx
+++ b/doc/MISS_WBS_220504.xlsx
@@ -1,25 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITSC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaew\Desktop\MISS\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95C05DB-3CB6-4734-AA8B-086D59BC5A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14205" windowHeight="6675"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>3주차</t>
   </si>
@@ -154,10 +167,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>문한민</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>옥지웅</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -195,15 +204,19 @@
   </si>
   <si>
     <t>MISS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>박건후</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="m&quot;/&quot;d;@"/>
+    <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -280,7 +293,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,6 +353,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -678,7 +697,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -784,9 +803,6 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="30" fontId="6" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -817,89 +833,113 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="7" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="4" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="4" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="6" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="9" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="8" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="6" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="9" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="8" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="7" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="30" fontId="6" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="셀 확인 2" xfId="2"/>
+    <cellStyle name="셀 확인 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1200,10 +1240,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:BZ23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AK43" sqref="AK43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1212,57 +1254,57 @@
     <col min="3" max="3" width="26.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.625" style="1" customWidth="1"/>
     <col min="7" max="78" width="4" style="1" customWidth="1"/>
     <col min="79" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:78" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
     </row>
     <row r="3" spans="2:78" x14ac:dyDescent="0.3">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="51" t="s">
         <v>46</v>
-      </c>
-      <c r="C3" s="71" t="s">
-        <v>47</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="56"/>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="56"/>
-      <c r="AG3" s="56"/>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="56"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="63"/>
+      <c r="AJ3" s="63"/>
       <c r="AK3" s="57" t="s">
         <v>27</v>
       </c>
@@ -1312,7 +1354,7 @@
     </row>
     <row r="4" spans="2:78" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -1320,340 +1362,340 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="62" t="s">
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="62" t="s">
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="V4" s="60"/>
-      <c r="W4" s="60"/>
-      <c r="X4" s="60"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="60"/>
-      <c r="AA4" s="61"/>
-      <c r="AB4" s="62" t="s">
+      <c r="V4" s="65"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="66"/>
+      <c r="AB4" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="AC4" s="60"/>
-      <c r="AD4" s="60"/>
-      <c r="AE4" s="60"/>
-      <c r="AF4" s="60"/>
-      <c r="AG4" s="60"/>
-      <c r="AH4" s="61"/>
-      <c r="AI4" s="63" t="s">
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="66"/>
+      <c r="AI4" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="AJ4" s="64"/>
-      <c r="AK4" s="64"/>
-      <c r="AL4" s="64"/>
-      <c r="AM4" s="64"/>
-      <c r="AN4" s="64"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="63" t="s">
+      <c r="AJ4" s="68"/>
+      <c r="AK4" s="68"/>
+      <c r="AL4" s="68"/>
+      <c r="AM4" s="68"/>
+      <c r="AN4" s="68"/>
+      <c r="AO4" s="69"/>
+      <c r="AP4" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="AQ4" s="64"/>
-      <c r="AR4" s="64"/>
-      <c r="AS4" s="64"/>
-      <c r="AT4" s="64"/>
-      <c r="AU4" s="64"/>
-      <c r="AV4" s="65"/>
-      <c r="AW4" s="63" t="s">
+      <c r="AQ4" s="68"/>
+      <c r="AR4" s="68"/>
+      <c r="AS4" s="68"/>
+      <c r="AT4" s="68"/>
+      <c r="AU4" s="68"/>
+      <c r="AV4" s="69"/>
+      <c r="AW4" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="AX4" s="64"/>
-      <c r="AY4" s="64"/>
-      <c r="AZ4" s="64"/>
-      <c r="BA4" s="64"/>
-      <c r="BB4" s="64"/>
-      <c r="BC4" s="65"/>
-      <c r="BD4" s="63" t="s">
+      <c r="AX4" s="68"/>
+      <c r="AY4" s="68"/>
+      <c r="AZ4" s="68"/>
+      <c r="BA4" s="68"/>
+      <c r="BB4" s="68"/>
+      <c r="BC4" s="69"/>
+      <c r="BD4" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="BE4" s="64"/>
-      <c r="BF4" s="64"/>
-      <c r="BG4" s="64"/>
-      <c r="BH4" s="64"/>
-      <c r="BI4" s="64"/>
-      <c r="BJ4" s="65"/>
-      <c r="BK4" s="63" t="s">
+      <c r="BE4" s="68"/>
+      <c r="BF4" s="68"/>
+      <c r="BG4" s="68"/>
+      <c r="BH4" s="68"/>
+      <c r="BI4" s="68"/>
+      <c r="BJ4" s="69"/>
+      <c r="BK4" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="BL4" s="64"/>
-      <c r="BM4" s="64"/>
-      <c r="BN4" s="64"/>
-      <c r="BO4" s="64"/>
-      <c r="BP4" s="64"/>
-      <c r="BQ4" s="65"/>
-      <c r="BR4" s="66" t="s">
+      <c r="BL4" s="68"/>
+      <c r="BM4" s="68"/>
+      <c r="BN4" s="68"/>
+      <c r="BO4" s="68"/>
+      <c r="BP4" s="68"/>
+      <c r="BQ4" s="69"/>
+      <c r="BR4" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="BS4" s="67"/>
-      <c r="BT4" s="67"/>
-      <c r="BU4" s="67"/>
-      <c r="BV4" s="67"/>
-      <c r="BW4" s="67"/>
-      <c r="BX4" s="68"/>
-      <c r="BY4" s="69" t="s">
+      <c r="BS4" s="60"/>
+      <c r="BT4" s="60"/>
+      <c r="BU4" s="60"/>
+      <c r="BV4" s="60"/>
+      <c r="BW4" s="60"/>
+      <c r="BX4" s="61"/>
+      <c r="BY4" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="BZ4" s="70"/>
+      <c r="BZ4" s="56"/>
     </row>
     <row r="5" spans="2:78" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="37" t="s">
+      <c r="C5" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="49">
+      <c r="G5" s="45">
         <v>44683</v>
       </c>
-      <c r="H5" s="50">
+      <c r="H5" s="46">
         <v>44684</v>
       </c>
-      <c r="I5" s="50">
+      <c r="I5" s="46">
         <v>44685</v>
       </c>
-      <c r="J5" s="51">
+      <c r="J5" s="47">
         <v>44686</v>
       </c>
-      <c r="K5" s="52">
+      <c r="K5" s="48">
         <v>44687</v>
       </c>
-      <c r="L5" s="53">
+      <c r="L5" s="49">
         <v>44688</v>
       </c>
-      <c r="M5" s="51">
+      <c r="M5" s="47">
         <v>44689</v>
       </c>
-      <c r="N5" s="52">
+      <c r="N5" s="48">
         <v>44690</v>
       </c>
-      <c r="O5" s="52">
+      <c r="O5" s="48">
         <v>44691</v>
       </c>
-      <c r="P5" s="52">
+      <c r="P5" s="48">
         <v>44692</v>
       </c>
-      <c r="Q5" s="52">
+      <c r="Q5" s="48">
         <v>44693</v>
       </c>
-      <c r="R5" s="52">
+      <c r="R5" s="48">
         <v>44694</v>
       </c>
-      <c r="S5" s="53">
+      <c r="S5" s="49">
         <v>44695</v>
       </c>
-      <c r="T5" s="51">
+      <c r="T5" s="47">
         <v>44696</v>
       </c>
-      <c r="U5" s="52">
+      <c r="U5" s="48">
         <v>44697</v>
       </c>
-      <c r="V5" s="52">
+      <c r="V5" s="48">
         <v>44698</v>
       </c>
-      <c r="W5" s="52">
+      <c r="W5" s="48">
         <v>44699</v>
       </c>
-      <c r="X5" s="52">
+      <c r="X5" s="48">
         <v>44700</v>
       </c>
-      <c r="Y5" s="52">
+      <c r="Y5" s="48">
         <v>44701</v>
       </c>
-      <c r="Z5" s="53">
+      <c r="Z5" s="49">
         <v>44702</v>
       </c>
-      <c r="AA5" s="51">
+      <c r="AA5" s="47">
         <v>44703</v>
       </c>
-      <c r="AB5" s="52">
+      <c r="AB5" s="48">
         <v>44704</v>
       </c>
-      <c r="AC5" s="52">
+      <c r="AC5" s="48">
         <v>44705</v>
       </c>
-      <c r="AD5" s="52">
+      <c r="AD5" s="48">
         <v>44706</v>
       </c>
-      <c r="AE5" s="52">
+      <c r="AE5" s="48">
         <v>44707</v>
       </c>
-      <c r="AF5" s="52">
+      <c r="AF5" s="48">
         <v>44708</v>
       </c>
-      <c r="AG5" s="53">
+      <c r="AG5" s="49">
         <v>44709</v>
       </c>
-      <c r="AH5" s="51">
+      <c r="AH5" s="47">
         <v>44710</v>
       </c>
-      <c r="AI5" s="52">
+      <c r="AI5" s="48">
         <v>44711</v>
       </c>
-      <c r="AJ5" s="52">
+      <c r="AJ5" s="48">
         <v>44712</v>
       </c>
-      <c r="AK5" s="51">
+      <c r="AK5" s="47">
         <v>44713</v>
       </c>
-      <c r="AL5" s="52">
+      <c r="AL5" s="48">
         <v>44714</v>
       </c>
-      <c r="AM5" s="52">
+      <c r="AM5" s="48">
         <v>44715</v>
       </c>
-      <c r="AN5" s="53">
+      <c r="AN5" s="49">
         <v>44716</v>
       </c>
-      <c r="AO5" s="51">
+      <c r="AO5" s="47">
         <v>44717</v>
       </c>
-      <c r="AP5" s="51">
+      <c r="AP5" s="47">
         <v>44718</v>
       </c>
-      <c r="AQ5" s="52">
+      <c r="AQ5" s="48">
         <v>44719</v>
       </c>
-      <c r="AR5" s="52">
+      <c r="AR5" s="48">
         <v>44720</v>
       </c>
-      <c r="AS5" s="52">
+      <c r="AS5" s="48">
         <v>44721</v>
       </c>
-      <c r="AT5" s="52">
+      <c r="AT5" s="48">
         <v>44722</v>
       </c>
-      <c r="AU5" s="53">
+      <c r="AU5" s="49">
         <v>44723</v>
       </c>
-      <c r="AV5" s="51">
+      <c r="AV5" s="47">
         <v>44724</v>
       </c>
-      <c r="AW5" s="52">
+      <c r="AW5" s="48">
         <v>44725</v>
       </c>
-      <c r="AX5" s="52">
+      <c r="AX5" s="48">
         <v>44726</v>
       </c>
-      <c r="AY5" s="52">
+      <c r="AY5" s="48">
         <v>44727</v>
       </c>
-      <c r="AZ5" s="52">
+      <c r="AZ5" s="48">
         <v>44728</v>
       </c>
-      <c r="BA5" s="52">
+      <c r="BA5" s="48">
         <v>44729</v>
       </c>
-      <c r="BB5" s="53">
+      <c r="BB5" s="49">
         <v>44730</v>
       </c>
-      <c r="BC5" s="51">
+      <c r="BC5" s="47">
         <v>44731</v>
       </c>
-      <c r="BD5" s="52">
+      <c r="BD5" s="48">
         <v>44732</v>
       </c>
-      <c r="BE5" s="52">
+      <c r="BE5" s="48">
         <v>44733</v>
       </c>
-      <c r="BF5" s="52">
+      <c r="BF5" s="48">
         <v>44734</v>
       </c>
-      <c r="BG5" s="52">
+      <c r="BG5" s="48">
         <v>44735</v>
       </c>
-      <c r="BH5" s="52">
+      <c r="BH5" s="48">
         <v>44736</v>
       </c>
-      <c r="BI5" s="53">
+      <c r="BI5" s="49">
         <v>44737</v>
       </c>
-      <c r="BJ5" s="51">
+      <c r="BJ5" s="47">
         <v>44738</v>
       </c>
-      <c r="BK5" s="52">
+      <c r="BK5" s="48">
         <v>44739</v>
       </c>
-      <c r="BL5" s="52">
+      <c r="BL5" s="48">
         <v>44740</v>
       </c>
-      <c r="BM5" s="52">
+      <c r="BM5" s="48">
         <v>44741</v>
       </c>
-      <c r="BN5" s="52">
+      <c r="BN5" s="48">
         <v>44742</v>
       </c>
-      <c r="BO5" s="52">
+      <c r="BO5" s="48">
         <v>44743</v>
       </c>
-      <c r="BP5" s="53">
+      <c r="BP5" s="49">
         <v>44744</v>
       </c>
-      <c r="BQ5" s="51">
+      <c r="BQ5" s="47">
         <v>44745</v>
       </c>
-      <c r="BR5" s="52">
+      <c r="BR5" s="48">
         <v>44746</v>
       </c>
-      <c r="BS5" s="52">
+      <c r="BS5" s="48">
         <v>44747</v>
       </c>
-      <c r="BT5" s="52">
+      <c r="BT5" s="48">
         <v>44748</v>
       </c>
-      <c r="BU5" s="52">
+      <c r="BU5" s="48">
         <v>44749</v>
       </c>
-      <c r="BV5" s="52">
+      <c r="BV5" s="48">
         <v>44750</v>
       </c>
-      <c r="BW5" s="53">
+      <c r="BW5" s="49">
         <v>44751</v>
       </c>
-      <c r="BX5" s="51">
+      <c r="BX5" s="47">
         <v>44752</v>
       </c>
-      <c r="BY5" s="52">
+      <c r="BY5" s="48">
         <v>44753</v>
       </c>
-      <c r="BZ5" s="54">
+      <c r="BZ5" s="50">
         <v>44754</v>
       </c>
     </row>
     <row r="6" spans="2:78" x14ac:dyDescent="0.3">
-      <c r="B6" s="39">
+      <c r="B6" s="38">
         <v>1</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="33">
         <v>44682</v>
@@ -1661,7 +1703,7 @@
       <c r="E6" s="33">
         <v>44701</v>
       </c>
-      <c r="F6" s="40"/>
+      <c r="F6" s="39"/>
       <c r="G6" s="4"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -1736,7 +1778,7 @@
       <c r="BZ6" s="8"/>
     </row>
     <row r="7" spans="2:78" x14ac:dyDescent="0.3">
-      <c r="B7" s="41">
+      <c r="B7" s="40">
         <v>1.1000000000000001</v>
       </c>
       <c r="C7" s="29" t="s">
@@ -1751,15 +1793,15 @@
       <c r="F7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
@@ -1825,7 +1867,7 @@
       <c r="BZ7" s="13"/>
     </row>
     <row r="8" spans="2:78" x14ac:dyDescent="0.3">
-      <c r="B8" s="41">
+      <c r="B8" s="40">
         <v>1.2</v>
       </c>
       <c r="C8" s="29" t="s">
@@ -1851,9 +1893,9 @@
       <c r="M8" s="11"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73"/>
       <c r="S8" s="12"/>
       <c r="T8" s="11"/>
       <c r="U8" s="9"/>
@@ -1916,7 +1958,7 @@
       <c r="BZ8" s="13"/>
     </row>
     <row r="9" spans="2:78" x14ac:dyDescent="0.3">
-      <c r="B9" s="41">
+      <c r="B9" s="40">
         <v>1.3</v>
       </c>
       <c r="C9" s="29" t="s">
@@ -1943,11 +1985,11 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="73"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="73"/>
       <c r="X9" s="9"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="12"/>
@@ -2005,7 +2047,7 @@
       <c r="BZ9" s="13"/>
     </row>
     <row r="10" spans="2:78" x14ac:dyDescent="0.3">
-      <c r="B10" s="41">
+      <c r="B10" s="40">
         <v>1.4</v>
       </c>
       <c r="C10" s="29" t="s">
@@ -2017,7 +2059,9 @@
       <c r="E10" s="32">
         <v>44700</v>
       </c>
-      <c r="F10" s="13"/>
+      <c r="F10" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="G10" s="10"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -2035,7 +2079,7 @@
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
+      <c r="X10" s="73"/>
       <c r="Y10" s="9"/>
       <c r="Z10" s="12"/>
       <c r="AA10" s="11"/>
@@ -2092,17 +2136,19 @@
       <c r="BZ10" s="13"/>
     </row>
     <row r="11" spans="2:78" x14ac:dyDescent="0.3">
-      <c r="B11" s="42">
+      <c r="B11" s="41">
         <v>1.5</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="70">
         <v>44701</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="13"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="G11" s="10"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -2121,7 +2167,7 @@
       <c r="V11" s="9"/>
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
+      <c r="Y11" s="73"/>
       <c r="Z11" s="12"/>
       <c r="AA11" s="11"/>
       <c r="AB11" s="9"/>
@@ -2177,11 +2223,11 @@
       <c r="BZ11" s="13"/>
     </row>
     <row r="12" spans="2:78" x14ac:dyDescent="0.3">
-      <c r="B12" s="39">
+      <c r="B12" s="38">
         <v>2</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="33">
         <v>44704</v>
@@ -2189,7 +2235,7 @@
       <c r="E12" s="33">
         <v>44715</v>
       </c>
-      <c r="F12" s="40"/>
+      <c r="F12" s="39"/>
       <c r="G12" s="10"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -2264,7 +2310,7 @@
       <c r="BZ12" s="13"/>
     </row>
     <row r="13" spans="2:78" x14ac:dyDescent="0.3">
-      <c r="B13" s="41">
+      <c r="B13" s="40">
         <v>2.1</v>
       </c>
       <c r="C13" s="29" t="s">
@@ -2277,7 +2323,7 @@
         <v>44708</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="9"/>
@@ -2298,15 +2344,15 @@
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
-      <c r="AE13" s="9"/>
-      <c r="AF13" s="9"/>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="11"/>
+      <c r="Z13" s="73"/>
+      <c r="AA13" s="73"/>
+      <c r="AB13" s="73"/>
+      <c r="AC13" s="73"/>
+      <c r="AD13" s="73"/>
+      <c r="AE13" s="73"/>
+      <c r="AF13" s="73"/>
+      <c r="AG13" s="73"/>
+      <c r="AH13" s="73"/>
       <c r="AI13" s="9"/>
       <c r="AJ13" s="9"/>
       <c r="AK13" s="11"/>
@@ -2353,7 +2399,7 @@
       <c r="BZ13" s="13"/>
     </row>
     <row r="14" spans="2:78" x14ac:dyDescent="0.3">
-      <c r="B14" s="41">
+      <c r="B14" s="40">
         <v>2.2000000000000002</v>
       </c>
       <c r="C14" s="29" t="s">
@@ -2362,7 +2408,7 @@
       <c r="D14" s="32"/>
       <c r="E14" s="32"/>
       <c r="F14" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="9"/>
@@ -2392,8 +2438,8 @@
       <c r="AF14" s="9"/>
       <c r="AG14" s="12"/>
       <c r="AH14" s="11"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="9"/>
+      <c r="AI14" s="74"/>
+      <c r="AJ14" s="73"/>
       <c r="AK14" s="11"/>
       <c r="AL14" s="9"/>
       <c r="AM14" s="9"/>
@@ -2438,7 +2484,7 @@
       <c r="BZ14" s="13"/>
     </row>
     <row r="15" spans="2:78" x14ac:dyDescent="0.3">
-      <c r="B15" s="41">
+      <c r="B15" s="40">
         <v>2.2999999999999998</v>
       </c>
       <c r="C15" s="29" t="s">
@@ -2483,9 +2529,9 @@
       <c r="AH15" s="11"/>
       <c r="AI15" s="9"/>
       <c r="AJ15" s="9"/>
-      <c r="AK15" s="11"/>
-      <c r="AL15" s="9"/>
-      <c r="AM15" s="9"/>
+      <c r="AK15" s="73"/>
+      <c r="AL15" s="73"/>
+      <c r="AM15" s="73"/>
       <c r="AN15" s="12"/>
       <c r="AO15" s="11"/>
       <c r="AP15" s="11"/>
@@ -2527,11 +2573,11 @@
       <c r="BZ15" s="13"/>
     </row>
     <row r="16" spans="2:78" x14ac:dyDescent="0.3">
-      <c r="B16" s="39">
+      <c r="B16" s="38">
         <v>3</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="33">
         <f>D17</f>
@@ -2541,7 +2587,7 @@
         <f>E19</f>
         <v>44747</v>
       </c>
-      <c r="F16" s="40"/>
+      <c r="F16" s="39"/>
       <c r="G16" s="10"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -2616,7 +2662,7 @@
       <c r="BZ16" s="13"/>
     </row>
     <row r="17" spans="2:78" x14ac:dyDescent="0.3">
-      <c r="B17" s="41">
+      <c r="B17" s="40">
         <v>3.1</v>
       </c>
       <c r="C17" s="30" t="s">
@@ -2628,7 +2674,7 @@
       <c r="E17" s="32">
         <v>44726</v>
       </c>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="42" t="s">
         <v>34</v>
       </c>
       <c r="G17" s="16"/>
@@ -2667,14 +2713,14 @@
       <c r="AN17" s="17"/>
       <c r="AO17" s="14"/>
       <c r="AP17" s="11"/>
-      <c r="AQ17" s="9"/>
-      <c r="AR17" s="9"/>
-      <c r="AS17" s="9"/>
-      <c r="AT17" s="9"/>
-      <c r="AU17" s="17"/>
-      <c r="AV17" s="14"/>
-      <c r="AW17" s="9"/>
-      <c r="AX17" s="9"/>
+      <c r="AQ17" s="73"/>
+      <c r="AR17" s="73"/>
+      <c r="AS17" s="73"/>
+      <c r="AT17" s="73"/>
+      <c r="AU17" s="75"/>
+      <c r="AV17" s="75"/>
+      <c r="AW17" s="73"/>
+      <c r="AX17" s="73"/>
       <c r="AY17" s="9"/>
       <c r="AZ17" s="9"/>
       <c r="BA17" s="9"/>
@@ -2705,7 +2751,7 @@
       <c r="BZ17" s="13"/>
     </row>
     <row r="18" spans="2:78" x14ac:dyDescent="0.3">
-      <c r="B18" s="41">
+      <c r="B18" s="40">
         <v>3.2</v>
       </c>
       <c r="C18" s="31" t="s">
@@ -2717,7 +2763,7 @@
       <c r="E18" s="32">
         <v>44740</v>
       </c>
-      <c r="F18" s="43" t="s">
+      <c r="F18" s="42" t="s">
         <v>35</v>
       </c>
       <c r="G18" s="18"/>
@@ -2764,20 +2810,20 @@
       <c r="AV18" s="20"/>
       <c r="AW18" s="9"/>
       <c r="AX18" s="9"/>
-      <c r="AY18" s="9"/>
-      <c r="AZ18" s="9"/>
-      <c r="BA18" s="9"/>
-      <c r="BB18" s="21"/>
-      <c r="BC18" s="20"/>
-      <c r="BD18" s="9"/>
-      <c r="BE18" s="9"/>
-      <c r="BF18" s="9"/>
-      <c r="BG18" s="9"/>
-      <c r="BH18" s="9"/>
-      <c r="BI18" s="21"/>
-      <c r="BJ18" s="20"/>
-      <c r="BK18" s="9"/>
-      <c r="BL18" s="9"/>
+      <c r="AY18" s="73"/>
+      <c r="AZ18" s="73"/>
+      <c r="BA18" s="73"/>
+      <c r="BB18" s="76"/>
+      <c r="BC18" s="76"/>
+      <c r="BD18" s="73"/>
+      <c r="BE18" s="73"/>
+      <c r="BF18" s="73"/>
+      <c r="BG18" s="73"/>
+      <c r="BH18" s="73"/>
+      <c r="BI18" s="76"/>
+      <c r="BJ18" s="76"/>
+      <c r="BK18" s="73"/>
+      <c r="BL18" s="73"/>
       <c r="BM18" s="9"/>
       <c r="BN18" s="9"/>
       <c r="BO18" s="9"/>
@@ -2794,7 +2840,7 @@
       <c r="BZ18" s="13"/>
     </row>
     <row r="19" spans="2:78" x14ac:dyDescent="0.3">
-      <c r="B19" s="44">
+      <c r="B19" s="43">
         <v>3.3</v>
       </c>
       <c r="C19" s="30" t="s">
@@ -2806,7 +2852,7 @@
       <c r="E19" s="32">
         <v>44747</v>
       </c>
-      <c r="F19" s="43" t="s">
+      <c r="F19" s="42" t="s">
         <v>36</v>
       </c>
       <c r="G19" s="18"/>
@@ -2867,13 +2913,13 @@
       <c r="BJ19" s="20"/>
       <c r="BK19" s="9"/>
       <c r="BL19" s="9"/>
-      <c r="BM19" s="9"/>
-      <c r="BN19" s="9"/>
-      <c r="BO19" s="9"/>
-      <c r="BP19" s="21"/>
-      <c r="BQ19" s="20"/>
-      <c r="BR19" s="9"/>
-      <c r="BS19" s="9"/>
+      <c r="BM19" s="73"/>
+      <c r="BN19" s="73"/>
+      <c r="BO19" s="73"/>
+      <c r="BP19" s="76"/>
+      <c r="BQ19" s="76"/>
+      <c r="BR19" s="73"/>
+      <c r="BS19" s="73"/>
       <c r="BT19" s="9"/>
       <c r="BU19" s="9"/>
       <c r="BV19" s="9"/>
@@ -2883,11 +2929,11 @@
       <c r="BZ19" s="13"/>
     </row>
     <row r="20" spans="2:78" x14ac:dyDescent="0.3">
-      <c r="B20" s="45">
+      <c r="B20" s="44">
         <v>4</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D20" s="33">
         <f>D21</f>
@@ -2897,7 +2943,7 @@
         <f>E22</f>
         <v>44753</v>
       </c>
-      <c r="F20" s="40"/>
+      <c r="F20" s="39"/>
       <c r="G20" s="18"/>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -2972,7 +3018,7 @@
       <c r="BZ20" s="13"/>
     </row>
     <row r="21" spans="2:78" x14ac:dyDescent="0.3">
-      <c r="B21" s="44">
+      <c r="B21" s="43">
         <v>4.0999999999999996</v>
       </c>
       <c r="C21" s="31" t="s">
@@ -2984,8 +3030,8 @@
       <c r="E21" s="32">
         <v>44750</v>
       </c>
-      <c r="F21" s="43" t="s">
-        <v>37</v>
+      <c r="F21" s="42" t="s">
+        <v>47</v>
       </c>
       <c r="G21" s="18"/>
       <c r="H21" s="19"/>
@@ -3052,16 +3098,16 @@
       <c r="BQ21" s="20"/>
       <c r="BR21" s="19"/>
       <c r="BS21" s="19"/>
-      <c r="BT21" s="19"/>
-      <c r="BU21" s="19"/>
-      <c r="BV21" s="19"/>
+      <c r="BT21" s="76"/>
+      <c r="BU21" s="76"/>
+      <c r="BV21" s="76"/>
       <c r="BW21" s="21"/>
       <c r="BX21" s="20"/>
       <c r="BY21" s="19"/>
       <c r="BZ21" s="22"/>
     </row>
     <row r="22" spans="2:78" x14ac:dyDescent="0.3">
-      <c r="B22" s="44">
+      <c r="B22" s="43">
         <v>4.2</v>
       </c>
       <c r="C22" s="31" t="s">
@@ -3074,7 +3120,7 @@
         <v>44753</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="5"/>
@@ -3144,21 +3190,23 @@
       <c r="BT22" s="5"/>
       <c r="BU22" s="5"/>
       <c r="BV22" s="5"/>
-      <c r="BW22" s="7"/>
-      <c r="BX22" s="6"/>
-      <c r="BY22" s="5"/>
+      <c r="BW22" s="77"/>
+      <c r="BX22" s="77"/>
+      <c r="BY22" s="77"/>
       <c r="BZ22" s="8"/>
     </row>
     <row r="23" spans="2:78" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48">
+      <c r="B23" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="54"/>
+      <c r="D23" s="52">
         <v>44754</v>
       </c>
-      <c r="E23" s="48"/>
-      <c r="F23" s="28"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="28" t="s">
+        <v>35</v>
+      </c>
       <c r="G23" s="24"/>
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
@@ -3230,10 +3278,11 @@
       <c r="BW23" s="27"/>
       <c r="BX23" s="26"/>
       <c r="BY23" s="25"/>
-      <c r="BZ23" s="28"/>
+      <c r="BZ23" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="U4:AA4"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="BY4:BZ4"/>
@@ -3250,7 +3299,6 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="G4:M4"/>
     <mergeCell ref="N4:T4"/>
-    <mergeCell ref="U4:AA4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
